--- a/MainTop/23.12.2025 имена/23.12.2025 имена.xlsx
+++ b/MainTop/23.12.2025 имена/23.12.2025 имена.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\23.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\23.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD612E-1EEA-4509-8ADE-0FDB77883C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA87A6F-50A0-48C8-B55B-5BBC858D6FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
   <si>
     <t>Артикул</t>
   </si>
   <si>
     <t>штрихкод</t>
+  </si>
+  <si>
+    <t>OZN1325160332</t>
+  </si>
+  <si>
+    <t>OZN1302411737</t>
+  </si>
+  <si>
+    <t>OZN1302409355</t>
+  </si>
+  <si>
+    <t>OZN1302409334</t>
+  </si>
+  <si>
+    <t>OZN1302409123</t>
+  </si>
+  <si>
+    <t>OZN1296068698</t>
+  </si>
+  <si>
+    <t>OZN1296068498</t>
+  </si>
+  <si>
+    <t>OZN1296068268</t>
+  </si>
+  <si>
+    <t>OZN1296066026</t>
+  </si>
+  <si>
+    <t>OZN1296065057</t>
+  </si>
+  <si>
+    <t>OZN1302409438</t>
+  </si>
+  <si>
+    <t>OZN1302409277</t>
+  </si>
+  <si>
+    <t>OZN1302408998</t>
+  </si>
+  <si>
+    <t>OZN1302407604</t>
+  </si>
+  <si>
+    <t>OZN1296065955</t>
+  </si>
+  <si>
+    <t>OZN1296065334</t>
+  </si>
+  <si>
+    <t>OZN1296068464</t>
+  </si>
+  <si>
+    <t>OZN1302409458</t>
+  </si>
+  <si>
+    <t>OZN1296064516</t>
+  </si>
+  <si>
+    <t>OZN1296054484</t>
+  </si>
+  <si>
+    <t>OZN1325161455</t>
+  </si>
+  <si>
+    <t>OZN1296068312</t>
+  </si>
+  <si>
+    <t>OZN1296053030</t>
+  </si>
+  <si>
+    <t>OZN1302410399</t>
+  </si>
+  <si>
+    <t>OZN1302409448</t>
+  </si>
+  <si>
+    <t>OZN1302409288</t>
+  </si>
+  <si>
+    <t>OZN1302409268</t>
+  </si>
+  <si>
+    <t>OZN1296050885</t>
+  </si>
+  <si>
+    <t>OZN1296064895</t>
+  </si>
+  <si>
+    <t>OZN1296049140</t>
+  </si>
+  <si>
+    <t>OZN1302409009</t>
+  </si>
+  <si>
+    <t>OZN1296053524</t>
+  </si>
+  <si>
+    <t>OZN1302409262</t>
+  </si>
+  <si>
+    <t>OZN1296064490</t>
+  </si>
+  <si>
+    <t>OZN1296053904</t>
+  </si>
+  <si>
+    <t>OZN1296053164</t>
+  </si>
+  <si>
+    <t>OZN1296040082</t>
+  </si>
+  <si>
+    <t>OZN1302409496</t>
+  </si>
+  <si>
+    <t>OZN1302409185</t>
+  </si>
+  <si>
+    <t>OZN1302408933</t>
+  </si>
+  <si>
+    <t>OZN1302407457</t>
+  </si>
+  <si>
+    <t>OZN1302305863</t>
+  </si>
+  <si>
+    <t>OZN1296049859</t>
+  </si>
+  <si>
+    <t>OZN1296052287</t>
+  </si>
+  <si>
+    <t>OZN1302409528</t>
+  </si>
+  <si>
+    <t>OZN1295887283</t>
+  </si>
+  <si>
+    <t>OZN1296047725</t>
+  </si>
+  <si>
+    <t>OZN1296046505</t>
   </si>
 </sst>
 </file>
@@ -371,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,373 +538,926 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MainTop/23.12.2025 имена/23.12.2025 имена.xlsx
+++ b/MainTop/23.12.2025 имена/23.12.2025 имена.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\23.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\23.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA87A6F-50A0-48C8-B55B-5BBC858D6FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6ED094-5F38-490F-AA7B-E3F60F8AB2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
